--- a/classfiers/bloated/svm/bloated-svm-default-results.xlsx
+++ b/classfiers/bloated/svm/bloated-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3846153846153846</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.3333333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8636363636363635</v>
+        <v>0.9839888618169161</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07692307692307693</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1428571428571429</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9965034965034965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9702797202797202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8306818181818182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6104671584123639</v>
+        <v>0.8604895104895105</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4588235294117647</v>
+        <v>0.64</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1238095238095238</v>
+        <v>0.52</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8543137114027524</v>
+        <v>0.9688956744612852</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/svm/bloated-svm-default-results.xlsx
+++ b/classfiers/bloated/svm/bloated-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9839888618169161</v>
+        <v>0.9776119402985075</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.8604895104895105</v>
+        <v>0.8516666666666668</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.64</v>
+        <v>0.6413793103448275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.52</v>
+        <v>0.4993406593406594</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9688956744612852</v>
+        <v>0.9658557213930349</v>
       </c>
     </row>
   </sheetData>
